--- a/01_Requirements/LedgerTypes/020_Cash in Hand .xlsx
+++ b/01_Requirements/LedgerTypes/020_Cash in Hand .xlsx
@@ -41,9 +41,6 @@
     <t xml:space="preserve">Cash in Hand </t>
   </si>
   <si>
-    <t xml:space="preserve">Having Petty cash account </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reciepts more than Rs. 2,00,000/- in an year from a person </t>
+  </si>
+  <si>
+    <t>Having Petty cash account</t>
   </si>
 </sst>
 </file>
@@ -275,27 +275,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -305,21 +287,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -329,14 +296,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -347,38 +335,50 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,7 +667,7 @@
   <dimension ref="D2:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -691,13 +691,13 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
       <c r="D5" s="2"/>
@@ -707,229 +707,235 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="4:8" ht="24.95" customHeight="1">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D19" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="22" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="28" t="s">
         <v>12</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D26" s="12"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="15"/>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-    </row>
-    <row r="31" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D31" s="32" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-    </row>
-    <row r="32" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D33" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="14">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="D22:H22"/>
@@ -938,12 +944,6 @@
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
